--- a/data/history_binance_post_treatments.xlsx
+++ b/data/history_binance_post_treatments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,15 +475,10 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>USD_current_coin_price</t>
+          <t>USD_price_per_coin</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>USD_price_per_coin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>USD_total_price</t>
         </is>
@@ -520,12 +515,9 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.19069</v>
+        <v>1.02455</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02455</v>
-      </c>
-      <c r="J2" t="n">
         <v>49.69067500000001</v>
       </c>
     </row>
@@ -560,12 +552,9 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.78116</v>
+        <v>1.58878</v>
       </c>
       <c r="I3" t="n">
-        <v>1.58878</v>
-      </c>
-      <c r="J3" t="n">
         <v>99.934262</v>
       </c>
     </row>
@@ -600,12 +589,9 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.78116</v>
+        <v>1.903</v>
       </c>
       <c r="I4" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="J4" t="n">
         <v>59.7542</v>
       </c>
     </row>
@@ -640,12 +626,9 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>58809.43</v>
+        <v>57558</v>
       </c>
       <c r="I5" t="n">
-        <v>57558</v>
-      </c>
-      <c r="J5" t="n">
         <v>199.380912</v>
       </c>
     </row>
@@ -680,12 +663,9 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.19069</v>
+        <v>1.25399</v>
       </c>
       <c r="I6" t="n">
-        <v>1.25399</v>
-      </c>
-      <c r="J6" t="n">
         <v>302.838585</v>
       </c>
     </row>
@@ -720,12 +700,9 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>58809.43</v>
+        <v>59500.04</v>
       </c>
       <c r="I7" t="n">
-        <v>59500.04</v>
-      </c>
-      <c r="J7" t="n">
         <v>205.8701384</v>
       </c>
     </row>
@@ -760,12 +737,9 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.063792</v>
+        <v>0.032738</v>
       </c>
       <c r="I8" t="n">
-        <v>0.032738</v>
-      </c>
-      <c r="J8" t="n">
         <v>59.84506400000001</v>
       </c>
     </row>
@@ -800,12 +774,9 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.063792</v>
+        <v>0.0351</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0351</v>
-      </c>
-      <c r="J9" t="n">
         <v>64.0926</v>
       </c>
     </row>
@@ -840,12 +811,9 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.19069</v>
+        <v>1.4102</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4102</v>
-      </c>
-      <c r="J10" t="n">
         <v>204.33798</v>
       </c>
     </row>
@@ -880,12 +848,9 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.19069</v>
+        <v>1.40448</v>
       </c>
       <c r="I11" t="n">
-        <v>1.40448</v>
-      </c>
-      <c r="J11" t="n">
         <v>203.368704</v>
       </c>
     </row>
@@ -920,12 +885,9 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>58809.43</v>
+        <v>57997.3</v>
       </c>
       <c r="I12" t="n">
-        <v>57997.3</v>
-      </c>
-      <c r="J12" t="n">
         <v>338.5882374</v>
       </c>
     </row>
@@ -960,12 +922,9 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>58809.43</v>
+        <v>58000.11</v>
       </c>
       <c r="I13" t="n">
-        <v>58000.11</v>
-      </c>
-      <c r="J13" t="n">
         <v>338.54664207</v>
       </c>
     </row>
@@ -1000,12 +959,9 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>29.1828</v>
+        <v>31.0714</v>
       </c>
       <c r="I14" t="n">
-        <v>31.0714</v>
-      </c>
-      <c r="J14" t="n">
         <v>249.814056</v>
       </c>
     </row>
@@ -1040,12 +996,9 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1979.18</v>
+        <v>1810.12</v>
       </c>
       <c r="I15" t="n">
-        <v>1810.12</v>
-      </c>
-      <c r="J15" t="n">
         <v>250.1042804</v>
       </c>
     </row>
@@ -1080,12 +1033,9 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1979.18</v>
+        <v>1800.61</v>
       </c>
       <c r="I16" t="n">
-        <v>1800.61</v>
-      </c>
-      <c r="J16" t="n">
         <v>500.1194275</v>
       </c>
     </row>
@@ -1120,12 +1070,9 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.063792</v>
+        <v>0.036647</v>
       </c>
       <c r="I17" t="n">
-        <v>0.036647</v>
-      </c>
-      <c r="J17" t="n">
         <v>99.973016</v>
       </c>
     </row>
@@ -1160,12 +1107,9 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.78116</v>
+        <v>1.8043</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8043</v>
-      </c>
-      <c r="J18" t="n">
         <v>199.91644</v>
       </c>
     </row>
@@ -1200,12 +1144,9 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.063792</v>
+        <v>0.043982</v>
       </c>
       <c r="I19" t="n">
-        <v>0.043982</v>
-      </c>
-      <c r="J19" t="n">
         <v>59.947466</v>
       </c>
     </row>
@@ -1240,12 +1181,9 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.00060106</v>
+        <v>1.2378766</v>
       </c>
       <c r="I20" t="n">
-        <v>1.2378766</v>
-      </c>
-      <c r="J20" t="n">
         <v>97.7922514</v>
       </c>
     </row>
@@ -1280,12 +1218,9 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.19069</v>
+        <v>1.2505</v>
       </c>
       <c r="I21" t="n">
-        <v>1.2505</v>
-      </c>
-      <c r="J21" t="n">
         <v>59.64885</v>
       </c>
     </row>
@@ -1320,12 +1255,9 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>29.1828</v>
+        <v>31.1</v>
       </c>
       <c r="I22" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J22" t="n">
         <v>149.902</v>
       </c>
     </row>
@@ -1360,12 +1292,9 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11.71491</v>
+        <v>8.234680000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>8.234680000000001</v>
-      </c>
-      <c r="J23" t="n">
         <v>149.047708</v>
       </c>
     </row>
@@ -1400,12 +1329,9 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>11.71491</v>
+        <v>9.5296</v>
       </c>
       <c r="I24" t="n">
-        <v>9.5296</v>
-      </c>
-      <c r="J24" t="n">
         <v>172.48576</v>
       </c>
     </row>
@@ -1440,12 +1366,9 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.7259</v>
+        <v>0.5938</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5938</v>
-      </c>
-      <c r="J25" t="n">
         <v>29.998776</v>
       </c>
     </row>
@@ -1480,12 +1403,9 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.7259</v>
+        <v>0.5873</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5873</v>
-      </c>
-      <c r="J26" t="n">
         <v>19.997565</v>
       </c>
     </row>
@@ -1520,12 +1440,9 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.48931</v>
+        <v>0.5458</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5458</v>
-      </c>
-      <c r="J27" t="n">
         <v>22.48696</v>
       </c>
     </row>
@@ -1560,12 +1477,9 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.32e-06</v>
+        <v>0.5510246</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5510246</v>
-      </c>
-      <c r="J28" t="n">
         <v>70.5311488</v>
       </c>
     </row>
@@ -1600,12 +1514,9 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.32e-06</v>
+        <v>0.55008</v>
       </c>
       <c r="I29" t="n">
-        <v>0.55008</v>
-      </c>
-      <c r="J29" t="n">
         <v>7.70112</v>
       </c>
     </row>
@@ -1640,12 +1551,9 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.088238</v>
+        <v>0.092012</v>
       </c>
       <c r="I30" t="n">
-        <v>0.092012</v>
-      </c>
-      <c r="J30" t="n">
         <v>99.464972</v>
       </c>
     </row>
@@ -1680,12 +1588,9 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.72e-06</v>
+        <v>0.00808248</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00808248</v>
-      </c>
-      <c r="J31" t="n">
         <v>100.3035768</v>
       </c>
     </row>
@@ -1720,12 +1625,9 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.790000000000001e-06</v>
+        <v>0.01025646</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01025646</v>
-      </c>
-      <c r="J32" t="n">
         <v>101.35433772</v>
       </c>
     </row>
@@ -1760,12 +1662,9 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>328.7344</v>
+        <v>269.3982</v>
       </c>
       <c r="I33" t="n">
-        <v>269.3982</v>
-      </c>
-      <c r="J33" t="n">
         <v>199.8934644</v>
       </c>
     </row>
@@ -1800,12 +1699,9 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.00592652</v>
+        <v>12.8144492481</v>
       </c>
       <c r="I34" t="n">
-        <v>12.8144492481</v>
-      </c>
-      <c r="J34" t="n">
         <v>205.0311879696</v>
       </c>
     </row>
@@ -1840,12 +1736,9 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.017382</v>
+        <v>0.0170654</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0170654</v>
-      </c>
-      <c r="J35" t="n">
         <v>46.759196</v>
       </c>
     </row>
@@ -1880,12 +1773,9 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>28.4748</v>
+        <v>27.933</v>
       </c>
       <c r="I36" t="n">
-        <v>27.933</v>
-      </c>
-      <c r="J36" t="n">
         <v>46.92744</v>
       </c>
     </row>
@@ -1920,12 +1810,9 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.063792</v>
+        <v>0.068533</v>
       </c>
       <c r="I37" t="n">
-        <v>0.068533</v>
-      </c>
-      <c r="J37" t="n">
         <v>49.96055699999999</v>
       </c>
     </row>
@@ -1960,12 +1847,9 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>328.7344</v>
+        <v>307.0053</v>
       </c>
       <c r="I38" t="n">
-        <v>307.0053</v>
-      </c>
-      <c r="J38" t="n">
         <v>99.77672249999999</v>
       </c>
     </row>
